--- a/mergeOutput_bolaBastao_c1682707472090.xlsx
+++ b/mergeOutput_bolaBastao_c1682707472090.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Qr</t>
   </si>
   <si>
-    <t xml:space="preserve">EyeTracker Epoch</t>
+    <t xml:space="preserve">EyeT Epoch</t>
   </si>
   <si>
     <t xml:space="preserve">No.</t>
@@ -448,7 +448,7 @@
         <v>456</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0</v>
+        <v>5.43</v>
       </c>
       <c r="M7" s="1" t="n">
         <v>5.41</v>
@@ -489,7 +489,7 @@
         <v>428</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>0</v>
+        <v>5.475</v>
       </c>
       <c r="M8" s="1" t="n">
         <v>5.42</v>
@@ -653,7 +653,7 @@
         <v>424</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>0</v>
+        <v>5.31</v>
       </c>
       <c r="M12" s="1" t="n">
         <v>5.07</v>
@@ -817,7 +817,7 @@
         <v>422</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>0</v>
+        <v>5.21666666666667</v>
       </c>
       <c r="M16" s="1" t="n">
         <v>4.91</v>
@@ -1022,7 +1022,7 @@
         <v>422</v>
       </c>
       <c r="L21" s="1" t="n">
-        <v>0</v>
+        <v>5.195</v>
       </c>
       <c r="M21" s="1" t="n">
         <v>4.96</v>
@@ -1063,7 +1063,7 @@
         <v>427</v>
       </c>
       <c r="L22" s="1" t="n">
-        <v>0</v>
+        <v>5.13</v>
       </c>
       <c r="M22" s="1" t="n">
         <v>4.96</v>
@@ -1104,7 +1104,7 @@
         <v>339</v>
       </c>
       <c r="L23" s="1" t="n">
-        <v>0</v>
+        <v>5.17</v>
       </c>
       <c r="M23" s="1" t="n">
         <v>4.92</v>
@@ -1145,7 +1145,7 @@
         <v>403</v>
       </c>
       <c r="L24" s="1" t="n">
-        <v>0</v>
+        <v>5.265</v>
       </c>
       <c r="M24" s="1" t="n">
         <v>5.05</v>
@@ -1186,7 +1186,7 @@
         <v>430</v>
       </c>
       <c r="L25" s="1" t="n">
-        <v>0</v>
+        <v>5.25333333333333</v>
       </c>
       <c r="M25" s="1" t="n">
         <v>5.09</v>
@@ -2091,7 +2091,7 @@
         <v>5.52</v>
       </c>
       <c r="M47" s="1" t="n">
-        <v>-1</v>
+        <v>5.35</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2337,7 +2337,7 @@
         <v>5.49</v>
       </c>
       <c r="M53" s="1" t="n">
-        <v>-1</v>
+        <v>5.415</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2419,7 +2419,7 @@
         <v>5.61</v>
       </c>
       <c r="M55" s="1" t="n">
-        <v>-1</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2706,7 +2706,7 @@
         <v>5.63</v>
       </c>
       <c r="M62" s="1" t="n">
-        <v>-1</v>
+        <v>5.425</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3482,7 +3482,7 @@
         <v>544</v>
       </c>
       <c r="L81" s="1" t="n">
-        <v>0</v>
+        <v>5.795</v>
       </c>
       <c r="M81" s="1" t="n">
         <v>5.69</v>
@@ -4179,7 +4179,7 @@
         <v>400</v>
       </c>
       <c r="L98" s="1" t="n">
-        <v>0</v>
+        <v>5.59</v>
       </c>
       <c r="M98" s="1" t="n">
         <v>5.73</v>
@@ -4630,7 +4630,7 @@
         <v>541</v>
       </c>
       <c r="L109" s="1" t="n">
-        <v>0</v>
+        <v>5.55666666666667</v>
       </c>
       <c r="M109" s="1" t="n">
         <v>5.63</v>
@@ -4671,7 +4671,7 @@
         <v>536</v>
       </c>
       <c r="L110" s="1" t="n">
-        <v>0</v>
+        <v>5.655</v>
       </c>
       <c r="M110" s="1" t="n">
         <v>5.65</v>
@@ -5122,7 +5122,7 @@
         <v>337</v>
       </c>
       <c r="L121" s="1" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="M121" s="1" t="n">
         <v>5.55</v>
@@ -5204,7 +5204,7 @@
         <v>357</v>
       </c>
       <c r="L123" s="1" t="n">
-        <v>0</v>
+        <v>5.555</v>
       </c>
       <c r="M123" s="1" t="n">
         <v>5.52</v>
@@ -5573,7 +5573,7 @@
         <v>389</v>
       </c>
       <c r="L132" s="1" t="n">
-        <v>0</v>
+        <v>5.475</v>
       </c>
       <c r="M132" s="1" t="n">
         <v>5.58</v>
@@ -6352,7 +6352,7 @@
         <v>350</v>
       </c>
       <c r="L151" s="1" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="M151" s="1" t="n">
         <v>5.63</v>
@@ -6434,7 +6434,7 @@
         <v>402</v>
       </c>
       <c r="L153" s="1" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="M153" s="1" t="n">
         <v>5.71</v>
@@ -6762,7 +6762,7 @@
         <v>332</v>
       </c>
       <c r="L161" s="1" t="n">
-        <v>0</v>
+        <v>5.455</v>
       </c>
       <c r="M161" s="1" t="n">
         <v>5.6</v>
@@ -6806,7 +6806,7 @@
         <v>5.49</v>
       </c>
       <c r="M162" s="1" t="n">
-        <v>0</v>
+        <v>5.575</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7172,7 +7172,7 @@
         <v>276</v>
       </c>
       <c r="L171" s="1" t="n">
-        <v>0</v>
+        <v>5.515</v>
       </c>
       <c r="M171" s="1" t="n">
         <v>5.66</v>
@@ -7664,7 +7664,7 @@
         <v>382</v>
       </c>
       <c r="L183" s="1" t="n">
-        <v>0</v>
+        <v>5.61</v>
       </c>
       <c r="M183" s="1" t="n">
         <v>5.78</v>
@@ -8282,7 +8282,7 @@
         <v>5.63</v>
       </c>
       <c r="M198" s="1" t="n">
-        <v>0</v>
+        <v>5.755</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12382,7 +12382,7 @@
         <v>5.74</v>
       </c>
       <c r="M298" s="1" t="n">
-        <v>-1</v>
+        <v>5.575</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13038,7 +13038,7 @@
         <v>5.6</v>
       </c>
       <c r="M314" s="1" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13366,7 +13366,7 @@
         <v>5.65</v>
       </c>
       <c r="M322" s="1" t="n">
-        <v>-1</v>
+        <v>5.585</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13732,7 +13732,7 @@
         <v>565</v>
       </c>
       <c r="L331" s="1" t="n">
-        <v>0</v>
+        <v>5.655</v>
       </c>
       <c r="M331" s="1" t="n">
         <v>5.71</v>
@@ -15252,7 +15252,7 @@
         <v>5.55</v>
       </c>
       <c r="M368" s="1" t="n">
-        <v>0</v>
+        <v>5.855</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15946,7 +15946,7 @@
         <v>347</v>
       </c>
       <c r="L385" s="1" t="n">
-        <v>0</v>
+        <v>5.49666666666667</v>
       </c>
       <c r="M385" s="1" t="n">
         <v>5.58</v>
@@ -19434,7 +19434,7 @@
         <v>5.9</v>
       </c>
       <c r="M470" s="1" t="n">
-        <v>-1</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20172,7 +20172,7 @@
         <v>5.79</v>
       </c>
       <c r="M488" s="1" t="n">
-        <v>0</v>
+        <v>5.855</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20213,7 +20213,7 @@
         <v>5.66</v>
       </c>
       <c r="M489" s="1" t="n">
-        <v>0</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20295,7 +20295,7 @@
         <v>5.73</v>
       </c>
       <c r="M491" s="1" t="n">
-        <v>0</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20705,7 +20705,7 @@
         <v>5.74</v>
       </c>
       <c r="M501" s="1" t="n">
-        <v>-1</v>
+        <v>5.695</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20828,7 +20828,7 @@
         <v>5.79</v>
       </c>
       <c r="M504" s="1" t="n">
-        <v>-1</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21115,7 +21115,7 @@
         <v>5.71</v>
       </c>
       <c r="M511" s="1" t="n">
-        <v>0</v>
+        <v>5.785</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22345,7 +22345,7 @@
         <v>5.68</v>
       </c>
       <c r="M541" s="1" t="n">
-        <v>0</v>
+        <v>5.805</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23165,7 +23165,7 @@
         <v>5.66</v>
       </c>
       <c r="M561" s="1" t="n">
-        <v>0</v>
+        <v>5.74333333333333</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23572,7 +23572,7 @@
         <v>407</v>
       </c>
       <c r="L571" s="1" t="n">
-        <v>0</v>
+        <v>5.735</v>
       </c>
       <c r="M571" s="1" t="n">
         <v>5.69</v>
@@ -24067,7 +24067,7 @@
         <v>5.6</v>
       </c>
       <c r="M583" s="1" t="n">
-        <v>0</v>
+        <v>5.74666666666667</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25051,7 +25051,7 @@
         <v>5.58</v>
       </c>
       <c r="M607" s="1" t="n">
-        <v>0</v>
+        <v>5.865</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25174,7 +25174,7 @@
         <v>5.78</v>
       </c>
       <c r="M610" s="1" t="n">
-        <v>-1</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25461,7 +25461,7 @@
         <v>5.53</v>
       </c>
       <c r="M617" s="1" t="n">
-        <v>-1</v>
+        <v>5.24375</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25502,7 +25502,7 @@
         <v>5.53</v>
       </c>
       <c r="M618" s="1" t="n">
-        <v>-1</v>
+        <v>5.21875</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25543,7 +25543,7 @@
         <v>5.34</v>
       </c>
       <c r="M619" s="1" t="n">
-        <v>-1</v>
+        <v>5.23428571428572</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25625,7 +25625,7 @@
         <v>5.44</v>
       </c>
       <c r="M621" s="1" t="n">
-        <v>-1</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25666,7 +25666,7 @@
         <v>5.42</v>
       </c>
       <c r="M622" s="1" t="n">
-        <v>-1</v>
+        <v>5.445</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26073,7 +26073,7 @@
         <v>693</v>
       </c>
       <c r="L632" s="1" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="M632" s="1" t="n">
         <v>5.6</v>
